--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_4.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="193">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">SKU, Other, POS</t>
   </si>
   <si>
-    <t xml:space="preserve">2X58 1X33 MEGA CORONA LIGHT, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, TendCardTriptico_Michelob, TendCardTriptico_Stella Artois, TendCardTriptico_Cucapa, 1X30MEGAC, 1X28MEGAC, Michelob POS Other, Stella Artois POS Other, Cucapa POS Other</t>
+    <t xml:space="preserve">2X58 1X33 MEGA CORONA LIGHT, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, TendCardTriptico_Michelob, TendCardTriptico_Stella Artois, TendCardTriptico_Cucapa, 1X30MEGAC, 1X28MEGAC, Michelob POS Other, Stella Artois POS Other, Cucapa POS Other, Prop_poster_michelob_Occi, Michelob ultra_bote, Michelob ultra_front, Poster BD 6x70 - Michelob, 40x60_CL_Mega_1x30, Corona light_mega, 37_40x60_CLmega, CervezaCucapa_logo_negro, Michelob_Ultra_4_color, Stella_Artois_1_color, beerhouse_poster_40x60, 1X28MEGAC, TendCardTriptico_Stella Artois, TendCardTriptico_Michelob, TendCardTriptico_Cucapa, Promo 100 Premium_UL_CU_M_S, Promo 100 Premium_UL_CU_M_S_BOTE ULTRA, Michelob POS Other, Corona Light POS Other, Stella Artois POS Other, Cucapa POS Other, 1X20FAMP 2X22MEDIASC 2X58MEGAC 1X26MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X50FAMC 2X22MEDIASC 2X58MEGAC 1X56MEGAE 1X29MEGACL_Tus favoritas al mejor precio, 2X50FAMP 2X22MEDIASC 2X58MEGAP 2X49MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X58 1X33 MEGA CORONA LIGHT, 2X58MEGAC 1X29MEGACL 2X50FAMC 2X22MEDIASC_Disfrutalas al mejor precio, 2X58MEGAC 2X50FAMC 2X22MEDIASC 1X29MEGACL 1X25MEGABL 2X51MEGAE_Tus favoritas al mejor precio, 2X70FAMC 2X22MEDIASC 2X58MEGAC 1X26MEGAE 1X29MEGACL_Tus favorias al mejor precio, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, 2X58MEGAP 1X29MEGACL 2X50FAMP 2X24MEDIASP_Disfrutalas al mejor precio, 2X58MEGAC 1X29MEGACL 1X25MEGABL 2X50FAMC 2X22MEDIASC_Tus favoritas al mejor precio, 2X40FAMP 2X24MEDIASP 2X58MEGAP 1X26MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X50FAMP 2X24MEDIASP 2X58MEGAP 2X49MEGABL 1X28MEGACL_Tus favoritas al mejor precio, Hoegaarden POS Other, 2X58MEGAC 1X29MEGACL 2X50FAMC 2X22MEDIASC_Disfrutalas al mejor precio, MUNDIAL_C_V_ME_BL, MUNDIAL_V_C_ME_BL, MUNDIAL_BL_C_V_ME, MUNDAL_C_V_ME_BL_SURESTE6, MUNDIAL_C_V_ME_BL_V2, MUNDIAL_C_V_ME_BL_SURESTE, MUNDIAL_C_V_ME_BL_SURESTE_2, MUNDIAL_C_V_ME_SURESTE3, MUNDIAL_SURESTE, MUNDIAL_C_ME_BL_SURESTE_5, MUNDIAL_MANGAS, MUNDIAL_BL_C_ME, MUNDIAL_C_P_ME_BL, MUNDIAL_BL_C MEDIA_P_ME, Bocanegra POS Other, Corcholata Entrada, SABORPARACONOCEDORES_STE-MICH-CU_355ml_POSTER, SABORPARACONOCEDORES_STE-MICH-CU_POSTER, Termometro, SABORPARACONOCEDORES_STE-MICH-CU_ITSMO, 2X58_CL_MEGA_SEPT, 4X54_CL_BOTE_SEPT, 20x125_CL_CUARTO_SEPT, CL_MEGA-MEDIA-BOTE_SEPT, CL_MEGA-MEDIA-BOTE_SEPT_MR, OKTOBERFEST_MOD-CU-STE-MICH_MEDIA, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE_OCT, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE_OCT_MR, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_NORTE2_OCT_MR, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_OCT, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_OCT_MR, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE2_POP_MR, OKTOBERFEST_CU-MOD-MICH-STE-VCH_MEDIA-BOTE_OCT, OKTOBERFEST_CU-MOD-MICH-STE-VCH_MEDIA-BOTE_OCT_MR, OKTOBERFEST_MOD-CU-STE_TENDCARD 4X3_NORTE, OKTOBERFEST_MOD-CU-STE-MICH_TENDCARD 4X3, SABORPARACONOCEDORES_CU-STE-MICH_BOTE-MEDIA_CB, SABORPARACONOCEDORES_CU-STE-MICH_MEDIA-BOTE_NORTE, SABORPARACONOCEDORES, ESPECIALIDADES, STE, Mich</t>
   </si>
   <si>
     <t xml:space="preserve">Product Availability KPI: If in at least one of the scene types there is product type POS from selected SKUs, then pass.</t>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X58 1X33 MEGA CORONA LIGHT, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, TendCardTriptico_Michelob, TendCardTriptico_Stella Artois, TendCardTriptico_Cucapa, 1X30MEGAC, 1X28MEGAC, Michelob POS Other, Stella Artois POS Other, Cucapa POS Other, Prop_poster_michelob_Occi, Michelob ultra_bote, Michelob ultra_front, Poster BD 6x70 - Michelob, 40x60_CL_Mega_1x30, Corona light_mega, 37_40x60_CLmega, CervezaCucapa_logo_negro, Michelob_Ultra_4_color, Stella_Artois_1_color, beerhouse_poster_40x60, 1X28MEGAC, TendCardTriptico_Stella Artois, TendCardTriptico_Michelob, TendCardTriptico_Cucapa, Promo 100 Premium_UL_CU_M_S, Promo 100 Premium_UL_CU_M_S_BOTE ULTRA, Michelob POS Other, Corona Light POS Other, Stella Artois POS Other, Cucapa POS Other, 1X20FAMP 2X22MEDIASC 2X58MEGAC 1X26MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X50FAMC 2X22MEDIASC 2X58MEGAC 1X56MEGAE 1X29MEGACL_Tus favoritas al mejor precio, 2X50FAMP 2X22MEDIASC 2X58MEGAP 2X49MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X58 1X33 MEGA CORONA LIGHT, 2X58MEGAC 1X29MEGACL 2X50FAMC 2X22MEDIASC_Disfrutalas al mejor precio, 2X58MEGAC 2X50FAMC 2X22MEDIASC 1X29MEGACL 1X25MEGABL 2X51MEGAE_Tus favoritas al mejor precio, 2X70FAMC 2X22MEDIASC 2X58MEGAC 1X26MEGAE 1X29MEGACL_Tus favorias al mejor precio, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, 2X58MEGAP 1X29MEGACL 2X50FAMP 2X24MEDIASP_Disfrutalas al mejor precio, 2X58MEGAC 1X29MEGACL 1X25MEGABL 2X50FAMC 2X22MEDIASC_Tus favoritas al mejor precio, 2X40FAMP 2X24MEDIASP 2X58MEGAP 1X26MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X50FAMP 2X24MEDIASP 2X58MEGAP 2X49MEGABL 1X28MEGACL_Tus favoritas al mejor precio, Hoegaarden POS Other, 2X58MEGAC 1X29MEGACL 2X50FAMC 2X22MEDIASC_Disfrutalas al mejor precio, MUNDIAL_C_V_ME_BL, MUNDIAL_V_C_ME_BL, MUNDIAL_BL_C_V_ME, MUNDAL_C_V_ME_BL_SURESTE6, MUNDIAL_C_V_ME_BL_V2, MUNDIAL_C_V_ME_BL_SURESTE, MUNDIAL_C_V_ME_BL_SURESTE_2, MUNDIAL_C_V_ME_SURESTE3, MUNDIAL_SURESTE, MUNDIAL_C_ME_BL_SURESTE_5, MUNDIAL_MANGAS, MUNDIAL_BL_C_ME, MUNDIAL_C_P_ME_BL, MUNDIAL_BL_C MEDIA_P_ME, Bocanegra POS Other, Corcholata Entrada, SABORPARACONOCEDORES_STE-MICH-CU_355ml_POSTER, SABORPARACONOCEDORES_STE-MICH-CU_POSTER, Termometro, SABORPARACONOCEDORES_STE-MICH-CU_ITSMO, 2X58_CL_MEGA_SEPT, 4X54_CL_BOTE_SEPT, 20x125_CL_CUARTO_SEPT, CL_MEGA-MEDIA-BOTE_SEPT, CL_MEGA-MEDIA-BOTE_SEPT_MR, OKTOBERFEST_MOD-CU-STE-MICH_MEDIA, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE_OCT, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE_OCT_MR, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_NORTE2_OCT_MR, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_OCT, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_OCT_MR, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE2_POP_MR, OKTOBERFEST_CU-MOD-MICH-STE-VCH_MEDIA-BOTE_OCT, OKTOBERFEST_CU-MOD-MICH-STE-VCH_MEDIA-BOTE_OCT_MR, OKTOBERFEST_MOD-CU-STE_TENDCARD 4X3_NORTE, OKTOBERFEST_MOD-CU-STE-MICH_TENDCARD 4X3, SABORPARACONOCEDORES_CU-STE-MICH_BOTE-MEDIA_CB, SABORPARACONOCEDORES_CU-STE-MICH_MEDIA-BOTE_NORTE,  SABORPARACONOCEDORES, ESPECIALIDADES, STE, Mich</t>
   </si>
   <si>
     <t xml:space="preserve">Set Botella Abierta Sin Cooler</t>
@@ -937,15 +940,19 @@
   </sheetPr>
   <dimension ref="A1:U65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R35" activeCellId="0" sqref="R35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="55.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="19" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -3368,7 +3375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
         <v>150</v>
       </c>
@@ -3384,7 +3391,7 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
@@ -3428,7 +3435,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>22</v>
@@ -3486,7 +3493,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>78</v>
@@ -3546,7 +3553,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>81</v>
@@ -3606,10 +3613,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C47" s="6" t="str">
         <f aca="false">B47</f>
@@ -3669,17 +3676,17 @@
         <v>90</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>24</v>
@@ -3711,10 +3718,10 @@
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S48" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T48" s="10" t="s">
         <v>146</v>
@@ -3725,13 +3732,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>23</v>
@@ -3765,16 +3772,16 @@
         <v>94</v>
       </c>
       <c r="Q49" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R49" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S49" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T49" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U49" s="19" t="s">
         <v>32</v>
@@ -3782,13 +3789,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>34</v>
@@ -3810,7 +3817,7 @@
         <v>24</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N50" s="19" t="n">
         <v>50</v>
@@ -3822,16 +3829,16 @@
         <v>94</v>
       </c>
       <c r="Q50" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R50" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S50" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T50" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U50" s="19" t="s">
         <v>32</v>
@@ -3863,105 +3870,108 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3987,6 +3997,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4010,25 +4023,28 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4054,10 +4070,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_4.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="193">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -59,6 +59,9 @@
     <t xml:space="preserve">category</t>
   </si>
   <si>
+    <t xml:space="preserve">sub_category</t>
+  </si>
+  <si>
     <t xml:space="preserve">Categoria Tradicional</t>
   </si>
   <si>
@@ -242,13 +245,13 @@
     <t xml:space="preserve">SKU, Other, POS</t>
   </si>
   <si>
-    <t xml:space="preserve">2X58 1X33 MEGA CORONA LIGHT, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, TendCardTriptico_Michelob, TendCardTriptico_Stella Artois, TendCardTriptico_Cucapa, 1X30MEGAC, 1X28MEGAC, Michelob POS Other, Stella Artois POS Other, Cucapa POS Other, Prop_poster_michelob_Occi, Michelob ultra_bote, Michelob ultra_front, Poster BD 6x70 - Michelob, 40x60_CL_Mega_1x30, Corona light_mega, 37_40x60_CLmega, CervezaCucapa_logo_negro, Michelob_Ultra_4_color, Stella_Artois_1_color, beerhouse_poster_40x60, 1X28MEGAC, TendCardTriptico_Stella Artois, TendCardTriptico_Michelob, TendCardTriptico_Cucapa, Promo 100 Premium_UL_CU_M_S, Promo 100 Premium_UL_CU_M_S_BOTE ULTRA, Michelob POS Other, Corona Light POS Other, Stella Artois POS Other, Cucapa POS Other, 1X20FAMP 2X22MEDIASC 2X58MEGAC 1X26MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X50FAMC 2X22MEDIASC 2X58MEGAC 1X56MEGAE 1X29MEGACL_Tus favoritas al mejor precio, 2X50FAMP 2X22MEDIASC 2X58MEGAP 2X49MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X58 1X33 MEGA CORONA LIGHT, 2X58MEGAC 1X29MEGACL 2X50FAMC 2X22MEDIASC_Disfrutalas al mejor precio, 2X58MEGAC 2X50FAMC 2X22MEDIASC 1X29MEGACL 1X25MEGABL 2X51MEGAE_Tus favoritas al mejor precio, 2X70FAMC 2X22MEDIASC 2X58MEGAC 1X26MEGAE 1X29MEGACL_Tus favorias al mejor precio, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, 2X58MEGAP 1X29MEGACL 2X50FAMP 2X24MEDIASP_Disfrutalas al mejor precio, 2X58MEGAC 1X29MEGACL 1X25MEGABL 2X50FAMC 2X22MEDIASC_Tus favoritas al mejor precio, 2X40FAMP 2X24MEDIASP 2X58MEGAP 1X26MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X50FAMP 2X24MEDIASP 2X58MEGAP 2X49MEGABL 1X28MEGACL_Tus favoritas al mejor precio, Hoegaarden POS Other, 2X58MEGAC 1X29MEGACL 2X50FAMC 2X22MEDIASC_Disfrutalas al mejor precio, MUNDIAL_C_V_ME_BL, MUNDIAL_V_C_ME_BL, MUNDIAL_BL_C_V_ME, MUNDAL_C_V_ME_BL_SURESTE6, MUNDIAL_C_V_ME_BL_V2, MUNDIAL_C_V_ME_BL_SURESTE, MUNDIAL_C_V_ME_BL_SURESTE_2, MUNDIAL_C_V_ME_SURESTE3, MUNDIAL_SURESTE, MUNDIAL_C_ME_BL_SURESTE_5, MUNDIAL_MANGAS, MUNDIAL_BL_C_ME, MUNDIAL_C_P_ME_BL, MUNDIAL_BL_C MEDIA_P_ME, Bocanegra POS Other, Corcholata Entrada, SABORPARACONOCEDORES_STE-MICH-CU_355ml_POSTER, SABORPARACONOCEDORES_STE-MICH-CU_POSTER, Termometro, SABORPARACONOCEDORES_STE-MICH-CU_ITSMO, 2X58_CL_MEGA_SEPT, 4X54_CL_BOTE_SEPT, 20x125_CL_CUARTO_SEPT, CL_MEGA-MEDIA-BOTE_SEPT, CL_MEGA-MEDIA-BOTE_SEPT_MR, OKTOBERFEST_MOD-CU-STE-MICH_MEDIA, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE_OCT, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE_OCT_MR, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_NORTE2_OCT_MR, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_OCT, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_OCT_MR, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE2_POP_MR, OKTOBERFEST_CU-MOD-MICH-STE-VCH_MEDIA-BOTE_OCT, OKTOBERFEST_CU-MOD-MICH-STE-VCH_MEDIA-BOTE_OCT_MR, OKTOBERFEST_MOD-CU-STE_TENDCARD 4X3_NORTE, OKTOBERFEST_MOD-CU-STE-MICH_TENDCARD 4X3, SABORPARACONOCEDORES_CU-STE-MICH_BOTE-MEDIA_CB, SABORPARACONOCEDORES_CU-STE-MICH_MEDIA-BOTE_NORTE, SABORPARACONOCEDORES, ESPECIALIDADES, STE, Mich</t>
+    <t xml:space="preserve">HE</t>
   </si>
   <si>
     <t xml:space="preserve">Product Availability KPI: If in at least one of the scene types there is product type POS from selected SKUs, then pass.</t>
   </si>
   <si>
-    <t xml:space="preserve">product_name, manufacturer_name, store_type, template_name, product_type, Store Additional Attribute 4</t>
+    <t xml:space="preserve">sub_category, manufacturer_name, store_type, template_name, product_type, Store Additional Attribute 4</t>
   </si>
   <si>
     <t xml:space="preserve">Set Botella Abierta</t>
@@ -480,9 +483,6 @@
   </si>
   <si>
     <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2X58 1X33 MEGA CORONA LIGHT, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, TendCardTriptico_Michelob, TendCardTriptico_Stella Artois, TendCardTriptico_Cucapa, 1X30MEGAC, 1X28MEGAC, Michelob POS Other, Stella Artois POS Other, Cucapa POS Other, Prop_poster_michelob_Occi, Michelob ultra_bote, Michelob ultra_front, Poster BD 6x70 - Michelob, 40x60_CL_Mega_1x30, Corona light_mega, 37_40x60_CLmega, CervezaCucapa_logo_negro, Michelob_Ultra_4_color, Stella_Artois_1_color, beerhouse_poster_40x60, 1X28MEGAC, TendCardTriptico_Stella Artois, TendCardTriptico_Michelob, TendCardTriptico_Cucapa, Promo 100 Premium_UL_CU_M_S, Promo 100 Premium_UL_CU_M_S_BOTE ULTRA, Michelob POS Other, Corona Light POS Other, Stella Artois POS Other, Cucapa POS Other, 1X20FAMP 2X22MEDIASC 2X58MEGAC 1X26MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X50FAMC 2X22MEDIASC 2X58MEGAC 1X56MEGAE 1X29MEGACL_Tus favoritas al mejor precio, 2X50FAMP 2X22MEDIASC 2X58MEGAP 2X49MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X58 1X33 MEGA CORONA LIGHT, 2X58MEGAC 1X29MEGACL 2X50FAMC 2X22MEDIASC_Disfrutalas al mejor precio, 2X58MEGAC 2X50FAMC 2X22MEDIASC 1X29MEGACL 1X25MEGABL 2X51MEGAE_Tus favoritas al mejor precio, 2X70FAMC 2X22MEDIASC 2X58MEGAC 1X26MEGAE 1X29MEGACL_Tus favorias al mejor precio, Mega light, Premium Stella Michelob Cucapa_Sabor para conocedores, 2X58MEGAP 1X29MEGACL 2X50FAMP 2X24MEDIASP_Disfrutalas al mejor precio, 2X58MEGAC 1X29MEGACL 1X25MEGABL 2X50FAMC 2X22MEDIASC_Tus favoritas al mejor precio, 2X40FAMP 2X24MEDIASP 2X58MEGAP 1X26MEGABL 1X28MEGACL_Tus favoritas al mejor precio, 2X50FAMP 2X24MEDIASP 2X58MEGAP 2X49MEGABL 1X28MEGACL_Tus favoritas al mejor precio, Hoegaarden POS Other, 2X58MEGAC 1X29MEGACL 2X50FAMC 2X22MEDIASC_Disfrutalas al mejor precio, MUNDIAL_C_V_ME_BL, MUNDIAL_V_C_ME_BL, MUNDIAL_BL_C_V_ME, MUNDAL_C_V_ME_BL_SURESTE6, MUNDIAL_C_V_ME_BL_V2, MUNDIAL_C_V_ME_BL_SURESTE, MUNDIAL_C_V_ME_BL_SURESTE_2, MUNDIAL_C_V_ME_SURESTE3, MUNDIAL_SURESTE, MUNDIAL_C_ME_BL_SURESTE_5, MUNDIAL_MANGAS, MUNDIAL_BL_C_ME, MUNDIAL_C_P_ME_BL, MUNDIAL_BL_C MEDIA_P_ME, Bocanegra POS Other, Corcholata Entrada, SABORPARACONOCEDORES_STE-MICH-CU_355ml_POSTER, SABORPARACONOCEDORES_STE-MICH-CU_POSTER, Termometro, SABORPARACONOCEDORES_STE-MICH-CU_ITSMO, 2X58_CL_MEGA_SEPT, 4X54_CL_BOTE_SEPT, 20x125_CL_CUARTO_SEPT, CL_MEGA-MEDIA-BOTE_SEPT, CL_MEGA-MEDIA-BOTE_SEPT_MR, OKTOBERFEST_MOD-CU-STE-MICH_MEDIA, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE_OCT, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE_OCT_MR, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_NORTE2_OCT_MR, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_OCT, OKTOBERFEST_CU-MICH-STE-MOD_MEDIA-BOTE_OCT_MR, OKTOBERFEST_CU-MOD-STE_MEDIA-BOTE_NORTE2_POP_MR, OKTOBERFEST_CU-MOD-MICH-STE-VCH_MEDIA-BOTE_OCT, OKTOBERFEST_CU-MOD-MICH-STE-VCH_MEDIA-BOTE_OCT_MR, OKTOBERFEST_MOD-CU-STE_TENDCARD 4X3_NORTE, OKTOBERFEST_MOD-CU-STE-MICH_TENDCARD 4X3, SABORPARACONOCEDORES_CU-STE-MICH_BOTE-MEDIA_CB, SABORPARACONOCEDORES_CU-STE-MICH_MEDIA-BOTE_NORTE,  SABORPARACONOCEDORES, ESPECIALIDADES, STE, Mich</t>
   </si>
   <si>
     <t xml:space="preserve">Set Botella Abierta Sin Cooler</t>
@@ -938,24 +938,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U65536"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="53.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.25"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="53.1887755102041"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +998,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1010,149 +1007,154 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="str">
         <f aca="false">B2</f>
         <v>Promociones Vigentes</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="7" t="n">
         <v>40</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="str">
         <f aca="false">B3</f>
         <v>Pureza Cooler</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="n">
         <v>15</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="str">
         <f aca="false">B4</f>
         <v>Primer Impacto</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1160,173 +1162,176 @@
         <v>2</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="6" t="n">
         <v>5</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="6" t="s">
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="str">
         <f aca="false">B5</f>
         <v>POP Agua</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="6" t="n">
         <v>5</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="6" t="s">
+      <c r="S5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="str">
         <f aca="false">B6</f>
         <v>Marcas Easy Drinking</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="6" t="s">
+      <c r="R6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>55</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="str">
         <f aca="false">B7</f>
         <v>Exhibicion Adicional</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1334,399 +1339,406 @@
         <v>3</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>44</v>
+      <c r="R7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="str">
         <f aca="false">B8</f>
         <v>Marcas Premium</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="6" t="n">
         <v>2.5</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>55</v>
+      <c r="R8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6" t="str">
         <f aca="false">B9</f>
         <v>Marcas Craft</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="6" t="n">
         <v>2.5</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>55</v>
+      <c r="R9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="str">
         <f aca="false">B10</f>
         <v>Sin Espacios Vacios</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="6" t="n">
         <v>0</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="10" t="s">
+      <c r="R10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="6" t="s">
-        <v>39</v>
+      <c r="U10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="str">
         <f aca="false">B11</f>
         <v>Posters HE/Innovacion/BET</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="13" t="s">
+      <c r="S11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="U11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="str">
         <f aca="false">B12</f>
         <v>Promociones Vigentes</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="6" t="s">
+      <c r="R12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="str">
         <f aca="false">B13</f>
         <v>Pureza Cooler</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6" t="str">
         <f aca="false">B14</f>
         <v>Materiales POCM</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1734,59 +1746,60 @@
         <v>5</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6" t="str">
         <f aca="false">B15</f>
         <v>Acuerdos Comerciales</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1794,115 +1807,117 @@
         <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="U15" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6" t="str">
         <f aca="false">B16</f>
         <v>Marca Light</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="B17" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6" t="str">
         <f aca="false">B17</f>
         <v>Exhibición Marca Foco</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1910,1424 +1925,1449 @@
         <v>7</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="6" t="str">
         <f aca="false">B18</f>
         <v>Sin Espacios Vacíos</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="T20" s="10" t="s">
+      <c r="P20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="U20" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="T21" s="10" t="s">
+      <c r="P21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="U21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="O22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="T22" s="6" t="s">
+      <c r="P22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" s="9" t="s">
         <v>107</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6" t="s">
+      <c r="P23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6" t="s">
+      <c r="P24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="S24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>107</v>
+      <c r="P25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="S26" s="9" t="s">
+      <c r="P26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="T26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>107</v>
+      <c r="P28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="O30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P30" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="T31" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L32" s="6"/>
       <c r="M32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6" t="n">
+      <c r="N33" s="6"/>
+      <c r="O33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U33" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6" t="n">
+      <c r="N34" s="6"/>
+      <c r="O34" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U34" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P34" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="O35" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="P35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R35" s="6"/>
       <c r="S35" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="T35" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U35" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L36" s="6"/>
       <c r="M36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="O36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="P36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R36" s="6"/>
       <c r="S36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="T36" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U36" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T36" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="T37" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U37" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="T38" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="O39" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P39" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6" t="s">
+      <c r="P39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U39" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="S39" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="T39" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="U39" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V39" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="6" t="str">
         <f aca="false">B40</f>
         <v>Promociones Vigentes</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="8" t="n">
         <v>62</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="P40" s="8" t="s">
         <v>27</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S40" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="S40" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="T40" s="17" t="s">
         <v>31</v>
       </c>
       <c r="U40" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V40" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="6" t="str">
         <f aca="false">B41</f>
         <v>POP Agua</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K41" s="8"/>
-      <c r="L41" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N41" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O41" s="8" t="n">
         <v>8</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="Q41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="R41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S41" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="B42" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="6" t="str">
         <f aca="false">B42</f>
         <v>Exhibicion Adicional</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -3335,175 +3375,178 @@
         <v>3</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K42" s="8"/>
-      <c r="L42" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="8" t="n">
         <v>15</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>27</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="T42" s="8" t="s">
-        <v>44</v>
+        <v>152</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="U42" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="V42" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C43" s="6" t="str">
         <f aca="false">B43</f>
         <v>Posters HE/Innovacion/BET</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
-        <v>152</v>
-      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="8" t="n">
         <v>15</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="P43" s="8" t="s">
         <v>27</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S43" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="T43" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T43" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="U43" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="6" t="str">
         <f aca="false">B44</f>
         <v>Promociones Vigentes</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K44" s="8"/>
-      <c r="L44" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="O44" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="P44" s="8" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="T44" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T44" s="17" t="s">
         <v>31</v>
       </c>
       <c r="U44" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V44" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="6" t="str">
         <f aca="false">B45</f>
         <v>Materiales POCM</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -3511,59 +3554,60 @@
         <v>5</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K45" s="8"/>
-      <c r="L45" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="L45" s="8"/>
       <c r="M45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="O45" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="P45" s="8" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S45" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="T45" s="8" t="s">
-        <v>44</v>
+        <v>152</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="U45" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V45" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" s="6" t="str">
         <f aca="false">B46</f>
         <v>Acuerdos Comerciales</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -3571,47 +3615,48 @@
         <v>8</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K46" s="8"/>
-      <c r="L46" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="L46" s="8"/>
       <c r="M46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="O46" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="P46" s="8" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S46" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="T46" s="8" t="s">
-        <v>44</v>
+        <v>152</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="U46" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V46" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
         <v>153</v>
       </c>
@@ -3623,7 +3668,7 @@
         <v>Exhibicion Marca Foco</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -3631,49 +3676,50 @@
         <v>7</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K47" s="8"/>
-      <c r="L47" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="L47" s="8"/>
       <c r="M47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="O47" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="P47" s="8" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S47" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="T47" s="8" t="s">
-        <v>44</v>
+        <v>152</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="U47" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="V47" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>155</v>
@@ -3682,52 +3728,53 @@
         <v>155</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="O48" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="P48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="S48" s="16" t="s">
+      <c r="T48" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="T48" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="U48" s="6" t="s">
-        <v>32</v>
+      <c r="U48" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V48" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,50 +3788,51 @@
         <v>160</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
       <c r="G49" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K49" s="19"/>
-      <c r="L49" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="L49" s="19"/>
       <c r="M49" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="O49" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="P49" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q49" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R49" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="R49" s="19" t="s">
+      <c r="S49" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="S49" s="19" t="s">
+      <c r="T49" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="T49" s="21" t="s">
+      <c r="U49" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="U49" s="19" t="s">
-        <v>32</v>
+      <c r="V49" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,55 +3846,53 @@
         <v>164</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
       <c r="G50" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K50" s="19"/>
-      <c r="L50" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="L50" s="19"/>
       <c r="M50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="N50" s="19" t="n">
+      <c r="O50" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="O50" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="P50" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q50" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R50" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="R50" s="19" t="s">
+      <c r="S50" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="S50" s="19" t="s">
+      <c r="T50" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="T50" s="21" t="s">
+      <c r="U50" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="U50" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="V50" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3870,9 +3916,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -3997,9 +4040,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4023,9 +4063,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4070,9 +4107,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4081,12 +4115,12 @@
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
